--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD752E0-C6DF-47E8-A392-0A1FCF53B6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED89233-224D-4EBF-B7A8-CEAC412C2376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,7 +493,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,6 +503,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -546,6 +552,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1293,22 +1300,22 @@
         <v>62</v>
       </c>
       <c r="E14" s="3">
-        <v>11901</v>
+        <v>15944</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="3">
         <f>0.8*E14</f>
-        <v>9520.8000000000011</v>
+        <v>12755.2</v>
       </c>
       <c r="H14" s="3">
         <f>E14</f>
-        <v>11901</v>
+        <v>15944</v>
       </c>
       <c r="I14" s="3">
         <f>1.2*E14</f>
-        <v>14281.199999999999</v>
+        <v>19132.8</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
@@ -1573,68 +1580,68 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="C23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="7">
         <v>0.68</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="F23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="7">
         <f>0.8*E23</f>
         <v>0.54400000000000004</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3">
+      <c r="H23" s="7"/>
+      <c r="I23" s="7">
         <f>1.2*E23</f>
         <v>0.81600000000000006</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3" t="s">
+      <c r="J23" s="7"/>
+      <c r="K23" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="7">
         <v>76</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7">
         <f>E24*0.8</f>
         <v>60.800000000000004</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3">
+      <c r="H24" s="7"/>
+      <c r="I24" s="7">
         <f>E24*1.2</f>
         <v>91.2</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3" t="s">
+      <c r="J24" s="7"/>
+      <c r="K24" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1975,19 +1982,19 @@
         <v>15</v>
       </c>
       <c r="E35" s="3">
-        <v>2</v>
+        <v>9.4</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="1"/>
-        <v>1.8</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3">
         <f>1.1*E35</f>
-        <v>2.2000000000000002</v>
+        <v>10.340000000000002</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
@@ -2170,19 +2177,19 @@
         <v>15</v>
       </c>
       <c r="E41" s="3">
-        <v>2</v>
+        <v>6.1</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G41" s="3">
         <f>0.8*E41</f>
-        <v>1.6</v>
+        <v>4.88</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3">
         <f>1.2*E41</f>
-        <v>2.4</v>
+        <v>7.3199999999999994</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
@@ -2236,19 +2243,19 @@
         <v>8</v>
       </c>
       <c r="E43" s="3">
-        <f>E38</f>
-        <v>0.96899999999999997</v>
+        <v>0.871</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G43" s="3">
         <f>0.9*E43</f>
-        <v>0.87209999999999999</v>
+        <v>0.78390000000000004</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3">
-        <v>1</v>
+        <f>1.1*E43</f>
+        <v>0.95810000000000006</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
@@ -2333,19 +2340,19 @@
         <v>15</v>
       </c>
       <c r="E46" s="3">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G46" s="3">
         <f>0.9*E46</f>
-        <v>1.8</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3">
         <f>1.1*E46</f>
-        <v>2.2000000000000002</v>
+        <v>20.900000000000002</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED89233-224D-4EBF-B7A8-CEAC412C2376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DFBADA-C2CC-4F91-B4BF-43373525F39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2183,13 +2183,13 @@
         <v>22</v>
       </c>
       <c r="G41" s="3">
-        <f>0.8*E41</f>
-        <v>4.88</v>
+        <f>0.9*E41</f>
+        <v>5.49</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3">
-        <f>1.2*E41</f>
-        <v>7.3199999999999994</v>
+        <f>1.1*E41</f>
+        <v>6.71</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
@@ -2216,13 +2216,13 @@
         <v>22</v>
       </c>
       <c r="G42" s="3">
-        <f>0.8*E42</f>
-        <v>128</v>
+        <f>0.9*E42</f>
+        <v>144</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3">
-        <f>1.2*E42</f>
-        <v>192</v>
+        <f>1.1*E42</f>
+        <v>176</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DFBADA-C2CC-4F91-B4BF-43373525F39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A11373-2926-4938-B465-9F0E1F6B16B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1367,17 +1367,17 @@
         <v>8</v>
       </c>
       <c r="E16" s="3">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="3">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A11373-2926-4938-B465-9F0E1F6B16B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E3233F-586A-4896-8F8D-68B4BE117B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1593,19 +1593,19 @@
         <v>20</v>
       </c>
       <c r="E23" s="7">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="7">
         <f>0.8*E23</f>
-        <v>0.54400000000000004</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7">
         <f>1.2*E23</f>
-        <v>0.81600000000000006</v>
+        <v>0.876</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7" t="s">
@@ -1626,19 +1626,19 @@
         <v>12</v>
       </c>
       <c r="E24" s="7">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="7">
         <f>E24*0.8</f>
-        <v>60.800000000000004</v>
+        <v>54.400000000000006</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7">
         <f>E24*1.2</f>
-        <v>91.2</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E3233F-586A-4896-8F8D-68B4BE117B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830E186F-4100-4815-A2E1-BB7099460E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,18 +493,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -540,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -552,7 +546,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,7 +829,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+      <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1215,74 +1208,69 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="6">
-        <v>30</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="3">
+        <v>33</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="6">
-        <f>0.9*E12</f>
-        <v>27</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
         <f t="shared" ref="H12:H13" si="0">E12</f>
-        <v>30</v>
-      </c>
-      <c r="I12" s="6">
-        <f>1.1*E12</f>
         <v>33</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6" t="s">
+      <c r="I12" s="3">
+        <v>50</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="6">
-        <v>30</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="3">
+        <v>1.4419999999999999</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="6">
-        <f>0.9*E13</f>
-        <v>27</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="I13" s="6">
-        <f>1.1*E13</f>
-        <v>33</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6" t="s">
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1.4419999999999999</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1580,68 +1568,68 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>0.73</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="F23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="6">
         <f>0.8*E23</f>
         <v>0.58399999999999996</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7">
+      <c r="H23" s="6"/>
+      <c r="I23" s="6">
         <f>1.2*E23</f>
         <v>0.876</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7" t="s">
+      <c r="J23" s="6"/>
+      <c r="K23" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>68</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7">
+      <c r="F24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="6">
         <f>E24*0.8</f>
         <v>54.400000000000006</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6">
         <f>E24*1.2</f>
         <v>81.599999999999994</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7" t="s">
+      <c r="J24" s="6"/>
+      <c r="K24" s="6" t="s">
         <v>35</v>
       </c>
     </row>

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830E186F-4100-4815-A2E1-BB7099460E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480B91B9-A09A-4373-ABEC-FA8DACBB405E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="145">
   <si>
     <t>Parameter name</t>
   </si>
@@ -323,12 +323,6 @@
     <t>R302.air_flow_rate_safety_factor_for_DO_saturation_basis = x</t>
   </si>
   <si>
-    <t>Acetone unit price</t>
-  </si>
-  <si>
-    <t>acetone_fresh.price = x</t>
-  </si>
-  <si>
     <t>Ni-SiO2 catalyst unit price</t>
   </si>
   <si>
@@ -459,6 +453,24 @@
   </si>
   <si>
     <t>R403.P = x</t>
+  </si>
+  <si>
+    <t>Upgrading IPA:TAL mass ratio</t>
+  </si>
+  <si>
+    <t>kg-IPA/kg-TAL</t>
+  </si>
+  <si>
+    <t>M405.w_IPA_per_w_TAL = x</t>
+  </si>
+  <si>
+    <t>Purification IPA:KS mass ratio</t>
+  </si>
+  <si>
+    <t>kg-IPA/kg-KS</t>
+  </si>
+  <si>
+    <t>M406.w_IPA_per_w_KSA = x</t>
   </si>
 </sst>
 </file>
@@ -826,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,7 +1157,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
@@ -1157,28 +1169,26 @@
         <v>10</v>
       </c>
       <c r="E10" s="3">
-        <v>1.5629</v>
+        <v>1.069</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="3">
-        <f>1.5629*0.44/0.63</f>
-        <v>1.0915492063492063</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3">
-        <f>1.5629*0.82/0.63</f>
-        <v>2.0342507936507936</v>
+        <v>1.2809999999999999</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -1190,26 +1200,29 @@
         <v>10</v>
       </c>
       <c r="E11" s="3">
-        <v>1.069</v>
+        <v>33</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G11" s="3">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="H11" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" ref="H11" si="0">E11</f>
+        <v>33</v>
+      </c>
       <c r="I11" s="3">
-        <v>1.2809999999999999</v>
+        <v>50</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
@@ -1221,98 +1234,95 @@
         <v>10</v>
       </c>
       <c r="E12" s="3">
-        <v>33</v>
+        <v>1.4419999999999999</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" ref="H12:H13" si="0">E12</f>
-        <v>33</v>
+        <v>1.4419999999999999</v>
       </c>
       <c r="I12" s="3">
-        <v>50</v>
+        <v>2.1</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E13" s="3">
-        <v>1.4419999999999999</v>
+        <v>15944</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <f>0.8*E13</f>
+        <v>12755.2</v>
       </c>
       <c r="H13" s="3">
-        <v>1.4419999999999999</v>
+        <f>E13</f>
+        <v>15944</v>
       </c>
       <c r="I13" s="3">
-        <v>2.1</v>
+        <f>1.2*E13</f>
+        <v>19132.8</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>15944</v>
+        <v>0.21</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G14" s="3">
-        <f>0.8*E14</f>
-        <v>12755.2</v>
-      </c>
-      <c r="H14" s="3">
-        <f>E14</f>
-        <v>15944</v>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3">
-        <f>1.2*E14</f>
-        <v>19132.8</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
@@ -1324,57 +1334,59 @@
         <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="3">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3">
-        <v>0.28000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E16" s="3">
-        <v>0.1</v>
+        <v>76.903000000000006</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="3">
-        <v>0.08</v>
+        <v>41.707000000000001</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="J16" s="3"/>
+        <v>101.9</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="K16" s="3" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>45</v>
@@ -1386,28 +1398,28 @@
         <v>12</v>
       </c>
       <c r="E17" s="3">
-        <v>76.903000000000006</v>
+        <v>10.228</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="3">
-        <v>41.707000000000001</v>
+        <v>5.5469999999999997</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3">
-        <v>101.9</v>
+        <v>14.909000000000001</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>45</v>
@@ -1416,31 +1428,31 @@
         <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="E18" s="3">
-        <v>10.228</v>
+        <v>10</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="3">
-        <v>5.5469999999999997</v>
+        <f>0.8*E18</f>
+        <v>8</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3">
-        <v>14.909000000000001</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>77</v>
-      </c>
+        <f>1.2*E18</f>
+        <v>12</v>
+      </c>
+      <c r="J18" s="5"/>
       <c r="K18" s="3" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>45</v>
@@ -1449,31 +1461,29 @@
         <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="E19" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="3">
-        <f>0.8*E19</f>
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3">
-        <f>1.2*E19</f>
-        <v>12</v>
-      </c>
-      <c r="J19" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>45</v>
@@ -1485,26 +1495,27 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="3">
-        <v>0.5</v>
+        <f>0.9*E20</f>
+        <v>0.85499999999999998</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>45</v>
@@ -1516,60 +1527,61 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>0.95</v>
+        <v>0.05</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="3">
         <f>0.9*E21</f>
-        <v>0.85499999999999998</v>
+        <v>4.5000000000000005E-2</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3">
-        <v>1</v>
+        <f>1.1*E21</f>
+        <v>5.5000000000000007E-2</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="3">
-        <f>0.9*E22</f>
-        <v>4.5000000000000005E-2</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3">
-        <f>1.1*E22</f>
-        <v>5.5000000000000007E-2</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3" t="s">
-        <v>41</v>
+      <c r="C22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.73</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="6">
+        <f>0.8*E22</f>
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6">
+        <f>1.2*E22</f>
+        <v>0.876</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>45</v>
@@ -1578,64 +1590,64 @@
         <v>27</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E23" s="6">
-        <v>0.73</v>
+        <v>68</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="6">
-        <f>0.8*E23</f>
-        <v>0.58399999999999996</v>
+        <f>E23*0.8</f>
+        <v>54.400000000000006</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6">
-        <f>1.2*E23</f>
-        <v>0.876</v>
+        <f>E23*1.2</f>
+        <v>81.599999999999994</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="6">
-        <v>68</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="6">
+      <c r="C24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="3">
         <f>E24*0.8</f>
-        <v>54.400000000000006</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
         <f>E24*1.2</f>
-        <v>81.599999999999994</v>
-      </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6" t="s">
-        <v>35</v>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>45</v>
@@ -1644,31 +1656,31 @@
         <v>27</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.12</v>
+        <v>20</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.33900000000000002</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="3">
         <f>E25*0.8</f>
-        <v>9.6000000000000002E-2</v>
+        <v>0.27120000000000005</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3">
         <f>E25*1.2</f>
-        <v>0.14399999999999999</v>
+        <v>0.40679999999999999</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>45</v>
@@ -1680,31 +1692,31 @@
         <v>20</v>
       </c>
       <c r="E26" s="3">
-        <v>0.33900000000000002</v>
+        <v>8.856E-2</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="3">
         <f>E26*0.8</f>
-        <v>0.27120000000000005</v>
+        <v>7.0848000000000008E-2</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3">
         <f>E26*1.2</f>
-        <v>0.40679999999999999</v>
+        <v>0.10627199999999999</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>27</v>
@@ -1713,28 +1725,26 @@
         <v>20</v>
       </c>
       <c r="E27" s="3">
-        <v>8.856E-2</v>
+        <v>0.2087</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="3">
-        <f>E27*0.8</f>
-        <v>7.0848000000000008E-2</v>
+        <v>4.6300000000000001E-2</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="3">
-        <f>E27*1.2</f>
-        <v>0.10627199999999999</v>
+      <c r="I27" s="4">
+        <v>0.34</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>55</v>
@@ -1743,29 +1753,29 @@
         <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E28" s="3">
-        <v>0.2087</v>
+        <v>1</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="3">
-        <v>4.6300000000000001E-2</v>
+        <v>0.8</v>
       </c>
       <c r="H28" s="3"/>
-      <c r="I28" s="4">
-        <v>0.34</v>
+      <c r="I28" s="3">
+        <v>1.2</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>55</v>
@@ -1774,29 +1784,29 @@
         <v>27</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="3">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
       <c r="F29" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="3">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3">
-        <v>1.2</v>
+        <v>14</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>55</v>
@@ -1805,29 +1815,30 @@
         <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E30" s="3">
-        <v>8</v>
+        <v>0.95</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="3">
-        <v>2</v>
+        <f>E30*0.8</f>
+        <v>0.76</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>55</v>
@@ -1839,27 +1850,28 @@
         <v>8</v>
       </c>
       <c r="E31" s="3">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="3">
         <f>E31*0.8</f>
-        <v>0.76</v>
+        <v>0.4</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3">
-        <v>1</v>
+        <f>E31*1.2</f>
+        <v>0.6</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>55</v>
@@ -1871,85 +1883,85 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="3">
         <f>E32*0.8</f>
-        <v>0.4</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3">
         <f>E32*1.2</f>
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="3">
-        <f>E33*0.8</f>
-        <v>4.0000000000000008E-2</v>
+        <f t="shared" ref="G33:G37" si="1">0.9*E33</f>
+        <v>0.18000000000000002</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3">
-        <f>E33*1.2</f>
-        <v>0.06</v>
+        <f>1.1*E33</f>
+        <v>0.22000000000000003</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E34" s="3">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" ref="G34:G38" si="1">0.9*E34</f>
-        <v>0.18000000000000002</v>
+        <f t="shared" si="1"/>
+        <v>1.71</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3">
         <f>1.1*E34</f>
-        <v>0.22000000000000003</v>
+        <v>2.09</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
@@ -1961,190 +1973,190 @@
         <v>104</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="E35" s="3">
-        <v>9.4</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="1"/>
-        <v>8.4600000000000009</v>
+        <v>90</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3">
         <f>1.1*E35</f>
-        <v>10.340000000000002</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E36" s="3">
-        <v>100</v>
+        <v>3500000</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G36" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>3150000</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3">
         <f>1.1*E36</f>
-        <v>110.00000000000001</v>
+        <v>3850000.0000000005</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="E37" s="3">
-        <v>3500000</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="3">
         <f t="shared" si="1"/>
-        <v>3150000</v>
+        <v>0.87209999999999999</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3">
-        <f>1.1*E37</f>
-        <v>3850000.0000000005</v>
+        <v>1</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E38" s="3">
-        <v>0.96899999999999997</v>
+        <v>1</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="1"/>
-        <v>0.87209999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E39" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G39" s="3">
-        <v>0.1</v>
+        <f>0.9*E39</f>
+        <v>0.45</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3">
-        <v>1.9</v>
+        <f>1.1*E39</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E40" s="3">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G40" s="3">
         <f>0.9*E40</f>
-        <v>0.45</v>
+        <v>2.79</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3">
         <f>1.1*E40</f>
-        <v>0.55000000000000004</v>
+        <v>3.4100000000000006</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
@@ -2156,28 +2168,28 @@
         <v>117</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="E41" s="3">
-        <v>6.1</v>
+        <v>160</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G41" s="3">
         <f>0.9*E41</f>
-        <v>5.49</v>
+        <v>144</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3">
         <f>1.1*E41</f>
-        <v>6.71</v>
+        <v>176</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
@@ -2189,28 +2201,28 @@
         <v>119</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="E42" s="3">
-        <v>160</v>
+        <v>0.871</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G42" s="3">
         <f>0.9*E42</f>
-        <v>144</v>
+        <v>0.78390000000000004</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3">
         <f>1.1*E42</f>
-        <v>176</v>
+        <v>0.95810000000000006</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
@@ -2222,28 +2234,28 @@
         <v>121</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="E43" s="3">
-        <v>0.871</v>
+        <v>2000000</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G43" s="3">
         <f>0.9*E43</f>
-        <v>0.78390000000000004</v>
+        <v>1800000</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3">
         <f>1.1*E43</f>
-        <v>0.95810000000000006</v>
+        <v>2200000</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
@@ -2255,28 +2267,26 @@
         <v>123</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E44" s="3">
-        <v>2000000</v>
+        <v>1</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G44" s="3">
-        <f>0.9*E44</f>
-        <v>1800000</v>
+        <v>0.1</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3">
-        <f>1.1*E44</f>
-        <v>2200000</v>
+        <v>1.9</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
@@ -2288,26 +2298,28 @@
         <v>125</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="E45" s="3">
-        <v>1</v>
+        <v>9.51</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G45" s="3">
-        <v>0.1</v>
+        <f>0.9*E45</f>
+        <v>8.5589999999999993</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3">
-        <v>1.9</v>
+        <f>1.1*E45</f>
+        <v>10.461</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3" t="s">
@@ -2316,62 +2328,63 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E46" s="3">
-        <v>19</v>
+        <v>0.999</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G46" s="3">
-        <f>0.9*E46</f>
-        <v>17.100000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3">
-        <f>1.1*E46</f>
-        <v>20.900000000000002</v>
+        <v>1</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="E47" s="3">
-        <v>0.999</v>
+        <f>130</f>
+        <v>130</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G47" s="3">
-        <v>0.98</v>
+        <f>0.9*E47</f>
+        <v>117</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3">
-        <v>1</v>
+        <f>1.1*E47</f>
+        <v>143</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3" t="s">
@@ -2380,36 +2393,35 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E48" s="3">
-        <f>130</f>
-        <v>130</v>
+        <v>2000000</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G48" s="3">
         <f>0.9*E48</f>
-        <v>117</v>
+        <v>1800000</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3">
         <f>1.1*E48</f>
-        <v>143</v>
+        <v>2200000</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -2417,103 +2429,99 @@
         <v>139</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="E49" s="3">
-        <v>2000000</v>
+        <v>31.391999999999999</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G49" s="3">
-        <f>0.9*E49</f>
-        <v>1800000</v>
+        <f t="shared" ref="G49:G50" si="2">0.9*E49</f>
+        <v>28.252800000000001</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3">
-        <f>1.1*E49</f>
-        <v>2200000</v>
+        <f t="shared" ref="I49:I50" si="3">1.1*E49</f>
+        <v>34.531200000000005</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="E50" s="3">
-        <v>168</v>
+        <v>31.545000000000002</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G50" s="3">
-        <v>134.4</v>
-      </c>
-      <c r="H50" s="3">
-        <v>168</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>28.390500000000003</v>
+      </c>
+      <c r="H50" s="3"/>
       <c r="I50" s="3">
-        <v>201.6</v>
+        <f t="shared" si="3"/>
+        <v>34.699500000000008</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E51" s="3">
-        <v>0.8</v>
+        <v>168</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G51" s="3">
-        <f>E51*0.9</f>
-        <v>0.72000000000000008</v>
-      </c>
-      <c r="H51" s="3"/>
+        <v>134.4</v>
+      </c>
+      <c r="H51" s="3">
+        <v>168</v>
+      </c>
       <c r="I51" s="3">
-        <f>E51*1.1</f>
-        <v>0.88000000000000012</v>
+        <v>201.6</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>23</v>
@@ -2525,22 +2533,55 @@
         <v>8</v>
       </c>
       <c r="E52" s="3">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G52" s="3">
         <f>E52*0.9</f>
-        <v>0.76500000000000001</v>
+        <v>0.72000000000000008</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3">
         <f>E52*1.1</f>
-        <v>0.93500000000000005</v>
+        <v>0.88000000000000012</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="3">
+        <f>E53*0.9</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3">
+        <f>E53*1.1</f>
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3" t="s">
         <v>59</v>
       </c>
     </row>

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480B91B9-A09A-4373-ABEC-FA8DACBB405E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571D5007-C0C3-4B1E-86A3-9271C0794CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1902,7 +1902,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>98</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>102</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>104</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>107</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>134</v>
       </c>
@@ -2054,8 +2054,8 @@
         <v>22</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="1"/>
-        <v>0.87209999999999999</v>
+        <f>1-2*(I37-E37)</f>
+        <v>0.93799999999999994</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3">
@@ -2065,8 +2065,12 @@
       <c r="K37" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q37">
+        <f t="shared" ref="Q37" si="2">IF(E37=H37, 1, IF(F37=$F$2, 1, 0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>111</v>
       </c>
@@ -2097,7 +2101,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>132</v>
       </c>
@@ -2130,7 +2134,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>115</v>
       </c>
@@ -2163,7 +2167,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>117</v>
       </c>
@@ -2196,7 +2200,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>119</v>
       </c>
@@ -2229,7 +2233,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>121</v>
       </c>
@@ -2262,7 +2266,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>123</v>
       </c>
@@ -2293,7 +2297,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>125</v>
       </c>
@@ -2326,7 +2330,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>135</v>
       </c>
@@ -2357,7 +2361,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>128</v>
       </c>
@@ -2391,7 +2395,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>137</v>
       </c>
@@ -2442,12 +2446,12 @@
         <v>22</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" ref="G49:G50" si="2">0.9*E49</f>
+        <f t="shared" ref="G49:G50" si="3">0.9*E49</f>
         <v>28.252800000000001</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3">
-        <f t="shared" ref="I49:I50" si="3">1.1*E49</f>
+        <f t="shared" ref="I49:I50" si="4">1.1*E49</f>
         <v>34.531200000000005</v>
       </c>
       <c r="J49" s="3"/>
@@ -2473,12 +2477,12 @@
         <v>22</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28.390500000000003</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34.699500000000008</v>
       </c>
       <c r="J50" s="3"/>

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571D5007-C0C3-4B1E-86A3-9271C0794CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47B0E88-4D13-4D25-BDA4-7A470B85D5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="147">
   <si>
     <t>Parameter name</t>
   </si>
@@ -471,6 +471,12 @@
   </si>
   <si>
     <t>M406.w_IPA_per_w_KSA = x</t>
+  </si>
+  <si>
+    <t>KOH unit price</t>
+  </si>
+  <si>
+    <t>KOH_fresh.price = x</t>
   </si>
 </sst>
 </file>
@@ -838,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1188,7 +1194,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -1200,29 +1206,27 @@
         <v>10</v>
       </c>
       <c r="E11" s="3">
-        <v>33</v>
+        <v>1.6</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G11" s="3">
-        <v>5</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" ref="H11" si="0">E11</f>
-        <v>33</v>
+        <f>0.8*E11</f>
+        <v>1.2800000000000002</v>
       </c>
       <c r="I11" s="3">
-        <v>50</v>
+        <f>1.2*E11</f>
+        <v>1.92</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
@@ -1234,95 +1238,98 @@
         <v>10</v>
       </c>
       <c r="E12" s="3">
-        <v>1.4419999999999999</v>
+        <v>33</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H12" s="3">
-        <v>1.4419999999999999</v>
+        <f t="shared" ref="H12" si="0">E12</f>
+        <v>33</v>
       </c>
       <c r="I12" s="3">
-        <v>2.1</v>
+        <v>50</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="E13" s="3">
-        <v>15944</v>
+        <v>1.4419999999999999</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="3">
-        <f>0.8*E13</f>
-        <v>12755.2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3">
-        <f>E13</f>
-        <v>15944</v>
+        <v>1.4419999999999999</v>
       </c>
       <c r="I13" s="3">
-        <f>1.2*E13</f>
-        <v>19132.8</v>
+        <v>2.1</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="E14" s="3">
-        <v>0.21</v>
+        <v>15944</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G14" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="H14" s="3"/>
+        <f>0.8*E14</f>
+        <v>12755.2</v>
+      </c>
+      <c r="H14" s="3">
+        <f>E14</f>
+        <v>15944</v>
+      </c>
       <c r="I14" s="3">
-        <v>0.28000000000000003</v>
+        <f>1.2*E14</f>
+        <v>19132.8</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
@@ -1334,59 +1341,57 @@
         <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="3">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3">
-        <v>0.12</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E16" s="3">
-        <v>76.903000000000006</v>
+        <v>0.1</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="3">
-        <v>41.707000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3">
-        <v>101.9</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>77</v>
-      </c>
+        <v>0.12</v>
+      </c>
+      <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>45</v>
@@ -1398,28 +1403,28 @@
         <v>12</v>
       </c>
       <c r="E17" s="3">
-        <v>10.228</v>
+        <v>76.903000000000006</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="3">
-        <v>5.5469999999999997</v>
+        <v>41.707000000000001</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3">
-        <v>14.909000000000001</v>
+        <v>101.9</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>45</v>
@@ -1428,31 +1433,31 @@
         <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="E18" s="3">
-        <v>10</v>
+        <v>10.228</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="3">
-        <f>0.8*E18</f>
-        <v>8</v>
+        <v>5.5469999999999997</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3">
-        <f>1.2*E18</f>
-        <v>12</v>
-      </c>
-      <c r="J18" s="5"/>
+        <v>14.909000000000001</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="K18" s="3" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>45</v>
@@ -1461,29 +1466,31 @@
         <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="3">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="3">
+        <f>0.8*E19</f>
         <v>8</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.5</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3">
-        <v>2</v>
-      </c>
-      <c r="J19" s="3"/>
+        <f>1.2*E19</f>
+        <v>12</v>
+      </c>
+      <c r="J19" s="5"/>
       <c r="K19" s="3" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>45</v>
@@ -1495,27 +1502,26 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="3">
-        <f>0.9*E20</f>
-        <v>0.85499999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>45</v>
@@ -1527,61 +1533,60 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>0.05</v>
+        <v>0.95</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="3">
         <f>0.9*E21</f>
-        <v>4.5000000000000005E-2</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3">
-        <f>1.1*E21</f>
-        <v>5.5000000000000007E-2</v>
+        <v>1</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="3">
+        <f>0.9*E22</f>
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3">
+        <f>1.1*E22</f>
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="6">
-        <f>0.8*E22</f>
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6">
-        <f>1.2*E22</f>
-        <v>0.876</v>
-      </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>45</v>
@@ -1590,64 +1595,64 @@
         <v>27</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E23" s="6">
-        <v>68</v>
+        <v>0.73</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="6">
-        <f>E23*0.8</f>
-        <v>54.400000000000006</v>
+        <f>0.8*E23</f>
+        <v>0.58399999999999996</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6">
-        <f>E23*1.2</f>
-        <v>81.599999999999994</v>
+        <f>1.2*E23</f>
+        <v>0.876</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="6">
+        <v>68</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="6">
+        <f>E24*0.8</f>
+        <v>54.400000000000006</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6">
+        <f>E24*1.2</f>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="3">
-        <f>E24*0.8</f>
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3">
-        <f>E24*1.2</f>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>45</v>
@@ -1656,31 +1661,31 @@
         <v>27</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0.33900000000000002</v>
+        <v>30</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.12</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="3">
         <f>E25*0.8</f>
-        <v>0.27120000000000005</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3">
         <f>E25*1.2</f>
-        <v>0.40679999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>45</v>
@@ -1692,31 +1697,31 @@
         <v>20</v>
       </c>
       <c r="E26" s="3">
-        <v>8.856E-2</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="3">
         <f>E26*0.8</f>
-        <v>7.0848000000000008E-2</v>
+        <v>0.27120000000000005</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3">
         <f>E26*1.2</f>
-        <v>0.10627199999999999</v>
+        <v>0.40679999999999999</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>27</v>
@@ -1725,26 +1730,28 @@
         <v>20</v>
       </c>
       <c r="E27" s="3">
-        <v>0.2087</v>
+        <v>8.856E-2</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="3">
-        <v>4.6300000000000001E-2</v>
+        <f>E27*0.8</f>
+        <v>7.0848000000000008E-2</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="4">
-        <v>0.34</v>
+      <c r="I27" s="3">
+        <f>E27*1.2</f>
+        <v>0.10627199999999999</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>55</v>
@@ -1753,29 +1760,29 @@
         <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E28" s="3">
-        <v>1</v>
+        <v>0.2087</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="3">
-        <v>0.8</v>
+        <v>4.6300000000000001E-2</v>
       </c>
       <c r="H28" s="3"/>
-      <c r="I28" s="3">
-        <v>1.2</v>
+      <c r="I28" s="4">
+        <v>0.34</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>55</v>
@@ -1784,29 +1791,29 @@
         <v>27</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="3">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3">
-        <v>14</v>
+        <v>1.2</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>55</v>
@@ -1815,30 +1822,29 @@
         <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="3">
         <v>8</v>
       </c>
-      <c r="E30" s="3">
-        <v>0.95</v>
-      </c>
       <c r="F30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="3">
-        <f>E30*0.8</f>
-        <v>0.76</v>
+        <v>2</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>55</v>
@@ -1850,28 +1856,27 @@
         <v>8</v>
       </c>
       <c r="E31" s="3">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="3">
         <f>E31*0.8</f>
-        <v>0.4</v>
+        <v>0.76</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3">
-        <f>E31*1.2</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>55</v>
@@ -1883,61 +1888,61 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="3">
         <f>E32*0.8</f>
-        <v>4.0000000000000008E-2</v>
+        <v>0.4</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3">
         <f>E32*1.2</f>
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" ref="G33:G37" si="1">0.9*E33</f>
-        <v>0.18000000000000002</v>
+        <f>E33*0.8</f>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3">
-        <f>1.1*E33</f>
-        <v>0.22000000000000003</v>
+        <f>E33*1.2</f>
+        <v>0.06</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>99</v>
@@ -1946,31 +1951,31 @@
         <v>27</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E34" s="3">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="1"/>
-        <v>1.71</v>
+        <f t="shared" ref="G34:G37" si="1">0.9*E34</f>
+        <v>0.18000000000000002</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3">
         <f>1.1*E34</f>
-        <v>2.09</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>99</v>
@@ -1979,31 +1984,31 @@
         <v>27</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>1.9</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>1.71</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3">
         <f>1.1*E35</f>
-        <v>110.00000000000001</v>
+        <v>2.09</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>99</v>
@@ -2012,31 +2017,31 @@
         <v>27</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E36" s="3">
-        <v>3500000</v>
+        <v>100</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G36" s="3">
         <f t="shared" si="1"/>
-        <v>3150000</v>
+        <v>90</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3">
         <f>1.1*E36</f>
-        <v>3850000.0000000005</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>99</v>
@@ -2045,34 +2050,31 @@
         <v>27</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="E37" s="3">
-        <v>0.96899999999999997</v>
+        <v>3500000</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="3">
-        <f>1-2*(I37-E37)</f>
-        <v>0.93799999999999994</v>
+        <f t="shared" si="1"/>
+        <v>3150000</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3">
-        <v>1</v>
+        <f>1.1*E37</f>
+        <v>3850000.0000000005</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" ref="Q37" si="2">IF(E37=H37, 1, IF(F37=$F$2, 1, 0))</f>
-        <v>1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>99</v>
@@ -2081,29 +2083,34 @@
         <v>27</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="E38" s="3">
-        <v>1</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G38" s="3">
-        <v>0.1</v>
+        <f>1-2*(I38-E38)</f>
+        <v>0.93799999999999994</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" ref="Q38" si="2">IF(E38=H38, 1, IF(F38=$F$2, 1, 0))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>99</v>
@@ -2112,31 +2119,29 @@
         <v>27</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E39" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G39" s="3">
-        <f>0.9*E39</f>
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3">
-        <f>1.1*E39</f>
-        <v>0.55000000000000004</v>
+        <v>1.9</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>99</v>
@@ -2145,31 +2150,31 @@
         <v>27</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E40" s="3">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G40" s="3">
         <f>0.9*E40</f>
-        <v>2.79</v>
+        <v>0.45</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3">
         <f>1.1*E40</f>
-        <v>3.4100000000000006</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>99</v>
@@ -2178,31 +2183,31 @@
         <v>27</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="E41" s="3">
-        <v>160</v>
+        <v>3.1</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G41" s="3">
         <f>0.9*E41</f>
-        <v>144</v>
+        <v>2.79</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3">
         <f>1.1*E41</f>
-        <v>176</v>
+        <v>3.4100000000000006</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>99</v>
@@ -2211,31 +2216,31 @@
         <v>27</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="E42" s="3">
-        <v>0.871</v>
+        <v>160</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G42" s="3">
         <f>0.9*E42</f>
-        <v>0.78390000000000004</v>
+        <v>144</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3">
         <f>1.1*E42</f>
-        <v>0.95810000000000006</v>
+        <v>176</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>99</v>
@@ -2244,31 +2249,31 @@
         <v>27</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="E43" s="3">
-        <v>2000000</v>
+        <v>0.871</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G43" s="3">
         <f>0.9*E43</f>
-        <v>1800000</v>
+        <v>0.78390000000000004</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3">
         <f>1.1*E43</f>
-        <v>2200000</v>
+        <v>0.95810000000000006</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>99</v>
@@ -2277,29 +2282,31 @@
         <v>27</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E44" s="3">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G44" s="3">
-        <v>0.1</v>
+        <f>0.9*E44</f>
+        <v>1800000</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3">
-        <v>1.9</v>
+        <f>1.1*E44</f>
+        <v>2200000</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>99</v>
@@ -2308,31 +2315,29 @@
         <v>27</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="E45" s="3">
-        <v>9.51</v>
+        <v>1</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G45" s="3">
-        <f>0.9*E45</f>
-        <v>8.5589999999999993</v>
+        <v>0.1</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3">
-        <f>1.1*E45</f>
-        <v>10.461</v>
+        <v>1.9</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>99</v>
@@ -2341,29 +2346,31 @@
         <v>27</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E46" s="3">
-        <v>0.999</v>
+        <v>9.51</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G46" s="3">
-        <v>0.98</v>
+        <f>0.9*E46</f>
+        <v>8.5589999999999993</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3">
-        <v>1</v>
+        <f>1.1*E46</f>
+        <v>10.461</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>99</v>
@@ -2372,193 +2379,191 @@
         <v>27</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.999</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3">
+        <v>1</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E48" s="3">
         <f>130</f>
         <v>130</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="3">
-        <f>0.9*E47</f>
-        <v>117</v>
-      </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3">
-        <f>1.1*E47</f>
-        <v>143</v>
-      </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2000000</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G48" s="3">
         <f>0.9*E48</f>
-        <v>1800000</v>
+        <v>117</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3">
         <f>1.1*E48</f>
-        <v>2200000</v>
+        <v>143</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D49" s="3" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="E49" s="3">
-        <v>31.391999999999999</v>
+        <v>2000000</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" ref="G49:G50" si="3">0.9*E49</f>
-        <v>28.252800000000001</v>
+        <f>0.9*E49</f>
+        <v>1800000</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3">
-        <f t="shared" ref="I49:I50" si="4">1.1*E49</f>
-        <v>34.531200000000005</v>
+        <f>1.1*E49</f>
+        <v>2200000</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" s="3">
+        <v>31.391999999999999</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" ref="G50:G51" si="3">0.9*E50</f>
+        <v>28.252800000000001</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3">
+        <f t="shared" ref="I50:I51" si="4">1.1*E50</f>
+        <v>34.531200000000005</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E51" s="3">
         <v>31.545000000000002</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="3">
+      <c r="F51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="3">
         <f t="shared" si="3"/>
         <v>28.390500000000003</v>
       </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3">
+      <c r="H51" s="3"/>
+      <c r="I51" s="3">
         <f t="shared" si="4"/>
         <v>34.699500000000008</v>
       </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="3">
-        <v>168</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G51" s="3">
-        <v>134.4</v>
-      </c>
-      <c r="H51" s="3">
-        <v>168</v>
-      </c>
-      <c r="I51" s="3">
-        <v>201.6</v>
-      </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E52" s="3">
-        <v>0.8</v>
+        <v>168</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G52" s="3">
-        <f>E52*0.9</f>
-        <v>0.72000000000000008</v>
-      </c>
-      <c r="H52" s="3"/>
+        <v>134.4</v>
+      </c>
+      <c r="H52" s="3">
+        <v>168</v>
+      </c>
       <c r="I52" s="3">
-        <f>E52*1.1</f>
-        <v>0.88000000000000012</v>
+        <v>201.6</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>23</v>
@@ -2570,22 +2575,55 @@
         <v>8</v>
       </c>
       <c r="E53" s="3">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G53" s="3">
         <f>E53*0.9</f>
-        <v>0.76500000000000001</v>
+        <v>0.72000000000000008</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3">
         <f>E53*1.1</f>
-        <v>0.93500000000000005</v>
+        <v>0.88000000000000012</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="3">
+        <f>E54*0.9</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3">
+        <f>E54*1.1</f>
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3" t="s">
         <v>59</v>
       </c>
     </row>

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47B0E88-4D13-4D25-BDA4-7A470B85D5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1E7386-626C-4D7C-BA8A-222258BEA855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,9 +368,6 @@
     <t>R401.P = x</t>
   </si>
   <si>
-    <t>R401.TAL_to_HMTHP_rxn.X = x</t>
-  </si>
-  <si>
     <t>Hydrogenation spent catalyst NiSiO2 replacement rate</t>
   </si>
   <si>
@@ -383,33 +380,15 @@
     <t>R402.mcat_frac = x</t>
   </si>
   <si>
-    <t>Dehydration reaction time</t>
-  </si>
-  <si>
     <t>R402.tau = x</t>
   </si>
   <si>
-    <t>Dehydration temperature</t>
-  </si>
-  <si>
     <t>R402.T = 273.15 + x</t>
   </si>
   <si>
-    <t>Dehydration HMTHP-to-PSA conversion</t>
-  </si>
-  <si>
-    <t>R402.HMTHP_to_PSA_rxn.X = x</t>
-  </si>
-  <si>
-    <t>Dehydration pressure</t>
-  </si>
-  <si>
     <t>R402.P = x</t>
   </si>
   <si>
-    <t>Dehydration spent catalyst Amberlyst70 replacement rate</t>
-  </si>
-  <si>
     <t>R402.spent_catalyst_replacements_per_year  = x</t>
   </si>
   <si>
@@ -434,9 +413,6 @@
     <t>R401.Amberlyst70_catalyst_price = x; fresh_catalyst_Amberlyst70 = x</t>
   </si>
   <si>
-    <t>Dehydration catalyst Amberlyst70:HMTHP ratio</t>
-  </si>
-  <si>
     <t>IPA_fresh.price = x</t>
   </si>
   <si>
@@ -477,6 +453,30 @@
   </si>
   <si>
     <t>KOH_fresh.price = x</t>
+  </si>
+  <si>
+    <t>Etherification &amp; hydrolysis reaction time</t>
+  </si>
+  <si>
+    <t>Etherification &amp; hydrolysis temperature</t>
+  </si>
+  <si>
+    <t>Etherification &amp; hydrolysis pressure</t>
+  </si>
+  <si>
+    <t>Etherification &amp; hydrolysis spent catalyst Amberlyst70 replacement rate</t>
+  </si>
+  <si>
+    <t>R401.TAL_to_HMP_rxn.X = x</t>
+  </si>
+  <si>
+    <t>Etherification &amp; hydrolysis catalyst Amberlyst70:HMP ratio</t>
+  </si>
+  <si>
+    <t>Etherification &amp; hydrolysis HMP-to-PSA conversion</t>
+  </si>
+  <si>
+    <t>R402.HMP_to_PSA_rxn.X = x</t>
   </si>
 </sst>
 </file>
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47:H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1536,7 +1536,7 @@
         <v>0.95</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G21" s="3">
         <f>0.9*E21</f>
@@ -1859,7 +1859,7 @@
         <v>0.95</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G31" s="3">
         <f>E31*0.8</f>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>99</v>
@@ -2089,19 +2089,22 @@
         <v>0.96899999999999997</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G38" s="3">
-        <f>1-2*(I38-E38)</f>
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="H38" s="3"/>
+        <f>0.9*E38</f>
+        <v>0.87209999999999999</v>
+      </c>
+      <c r="H38" s="3">
+        <f>E38</f>
+        <v>0.96899999999999997</v>
+      </c>
       <c r="I38" s="3">
         <v>1</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="Q38">
         <f t="shared" ref="Q38" si="2">IF(E38=H38, 1, IF(F38=$F$2, 1, 0))</f>
@@ -2110,7 +2113,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>99</v>
@@ -2119,7 +2122,7 @@
         <v>27</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
@@ -2136,12 +2139,12 @@
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>99</v>
@@ -2169,12 +2172,12 @@
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>99</v>
@@ -2202,12 +2205,12 @@
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>99</v>
@@ -2235,12 +2238,12 @@
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>99</v>
@@ -2268,12 +2271,12 @@
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>99</v>
@@ -2301,12 +2304,12 @@
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>99</v>
@@ -2315,7 +2318,7 @@
         <v>27</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E45" s="3">
         <v>1</v>
@@ -2332,12 +2335,12 @@
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>99</v>
@@ -2365,12 +2368,12 @@
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>99</v>
@@ -2385,23 +2388,27 @@
         <v>0.999</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G47" s="3">
-        <v>0.98</v>
-      </c>
-      <c r="H47" s="3"/>
+        <f>0.9*E47</f>
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="H47" s="3">
+        <f>E47</f>
+        <v>0.999</v>
+      </c>
       <c r="I47" s="3">
         <v>1</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>99</v>
@@ -2430,12 +2437,12 @@
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>99</v>
@@ -2463,19 +2470,19 @@
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E50" s="3">
         <v>31.391999999999999</v>
@@ -2494,19 +2501,19 @@
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E51" s="3">
         <v>31.545000000000002</v>
@@ -2525,12 +2532,12 @@
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>14</v>

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1E7386-626C-4D7C-BA8A-222258BEA855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA1623C-1719-44A7-834E-144A4681159F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47:H47"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1542,7 +1542,10 @@
         <f>0.9*E21</f>
         <v>0.85499999999999998</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3">
+        <f>E21</f>
+        <v>0.95</v>
+      </c>
       <c r="I21" s="3">
         <v>1</v>
       </c>
@@ -1865,7 +1868,10 @@
         <f>E31*0.8</f>
         <v>0.76</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H31" s="3">
+        <f>E31</f>
+        <v>0.95</v>
+      </c>
       <c r="I31" s="3">
         <v>1</v>
       </c>

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA1623C-1719-44A7-834E-144A4681159F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B2B13F-E8A9-4F79-B609-E3540ACC3F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1993,19 +1993,19 @@
         <v>15</v>
       </c>
       <c r="E35" s="3">
-        <v>1.9</v>
+        <v>9.4</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="1"/>
-        <v>1.71</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3">
         <f>1.1*E35</f>
-        <v>2.09</v>
+        <v>10.340000000000002</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
@@ -2195,19 +2195,19 @@
         <v>15</v>
       </c>
       <c r="E41" s="3">
-        <v>3.1</v>
+        <v>6.1</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G41" s="3">
         <f>0.9*E41</f>
-        <v>2.79</v>
+        <v>5.49</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3">
         <f>1.1*E41</f>
-        <v>3.4100000000000006</v>
+        <v>6.71</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
@@ -2358,19 +2358,19 @@
         <v>15</v>
       </c>
       <c r="E46" s="3">
-        <v>9.51</v>
+        <v>19</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G46" s="3">
         <f>0.9*E46</f>
-        <v>8.5589999999999993</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3">
         <f>1.1*E46</f>
-        <v>10.461</v>
+        <v>20.900000000000002</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B2B13F-E8A9-4F79-B609-E3540ACC3F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53326339-B265-4FC8-8565-D91115B780C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD54"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1536,16 +1536,13 @@
         <v>0.95</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G21" s="3">
-        <f>0.9*E21</f>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="H21" s="3">
-        <f>E21</f>
-        <v>0.95</v>
-      </c>
+        <f>1-2*(1-E21)</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H21" s="3"/>
       <c r="I21" s="3">
         <v>1</v>
       </c>
@@ -1862,16 +1859,13 @@
         <v>0.95</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G31" s="3">
-        <f>E31*0.8</f>
-        <v>0.76</v>
-      </c>
-      <c r="H31" s="3">
-        <f>E31</f>
-        <v>0.95</v>
-      </c>
+        <f>1-2*(1-E31)</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H31" s="3"/>
       <c r="I31" s="3">
         <v>1</v>
       </c>
@@ -2095,16 +2089,13 @@
         <v>0.96899999999999997</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G38" s="3">
-        <f>0.9*E38</f>
-        <v>0.87209999999999999</v>
-      </c>
-      <c r="H38" s="3">
-        <f>E38</f>
-        <v>0.96899999999999997</v>
-      </c>
+        <f>1-2*(1-E38)</f>
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="H38" s="3"/>
       <c r="I38" s="3">
         <v>1</v>
       </c>
@@ -2394,16 +2385,13 @@
         <v>0.999</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G47" s="3">
-        <f>0.9*E47</f>
-        <v>0.89910000000000001</v>
-      </c>
-      <c r="H47" s="3">
-        <f>E47</f>
-        <v>0.999</v>
-      </c>
+        <f>1-2*(1-E47)</f>
+        <v>0.998</v>
+      </c>
+      <c r="H47" s="3"/>
       <c r="I47" s="3">
         <v>1</v>
       </c>

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53326339-B265-4FC8-8565-D91115B780C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73112C5D-3B01-4E77-98C3-AEC002750975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6400" yWindow="980" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
     <t>Baseline</t>
   </si>
   <si>
-    <t>Load Statements</t>
-  </si>
-  <si>
     <t>g/L/h</t>
   </si>
   <si>
@@ -477,6 +474,9 @@
   </si>
   <si>
     <t>R402.HMP_to_PSA_rxn.X = x</t>
+  </si>
+  <si>
+    <t>Load statement</t>
   </si>
 </sst>
 </file>
@@ -846,21 +846,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="40.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" customWidth="1"/>
+    <col min="11" max="11" width="19.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -889,13 +889,13 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -923,12 +923,12 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -937,13 +937,13 @@
         <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="3">
         <v>180</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="3">
         <v>120</v>
@@ -956,13 +956,13 @@
         <v>240</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -979,7 +979,7 @@
         <v>3.4500000000000003E-2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="3">
         <v>2.76E-2</v>
@@ -992,10 +992,10 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>0.27650000000000002</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="3">
         <v>0.21629999999999999</v>
@@ -1025,10 +1025,10 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="3">
         <v>6.7000000000000004E-2</v>
@@ -1058,12 +1058,12 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -1078,7 +1078,7 @@
         <v>1.0105599999999999</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="3">
         <f>(0.35/0.38)*E7</f>
@@ -1094,12 +1094,12 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -1127,12 +1127,12 @@
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -1158,12 +1158,12 @@
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -1221,12 +1221,12 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
@@ -1241,7 +1241,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="3">
         <v>5</v>
@@ -1255,12 +1255,12 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
@@ -1275,7 +1275,7 @@
         <v>1.4419999999999999</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1288,12 +1288,12 @@
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -1302,13 +1302,13 @@
         <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="3">
         <v>15944</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="3">
         <f>0.8*E14</f>
@@ -1324,12 +1324,12 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
@@ -1355,12 +1355,12 @@
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
@@ -1386,15 +1386,15 @@
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>27</v>
@@ -1416,18 +1416,18 @@
         <v>101.9</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>27</v>
@@ -1449,24 +1449,24 @@
         <v>14.909000000000001</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" s="3">
         <v>10</v>
@@ -1485,15 +1485,15 @@
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>27</v>
@@ -1516,15 +1516,15 @@
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>27</v>
@@ -1548,15 +1548,15 @@
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>27</v>
@@ -1581,15 +1581,15 @@
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>27</v>
@@ -1614,15 +1614,15 @@
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>27</v>
@@ -1647,21 +1647,21 @@
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" s="4">
         <v>0.12</v>
@@ -1680,15 +1680,15 @@
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>27</v>
@@ -1713,15 +1713,15 @@
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>27</v>
@@ -1746,15 +1746,15 @@
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>27</v>
@@ -1777,15 +1777,15 @@
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>27</v>
@@ -1808,15 +1808,15 @@
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>27</v>
@@ -1839,15 +1839,15 @@
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>27</v>
@@ -1871,15 +1871,15 @@
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>27</v>
@@ -1904,15 +1904,15 @@
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="B33" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>27</v>
@@ -1937,21 +1937,21 @@
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="E34" s="3">
         <v>0.2</v>
@@ -1970,15 +1970,15 @@
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="B35" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>27</v>
@@ -2003,21 +2003,21 @@
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="B36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E36" s="3">
         <v>100</v>
@@ -2036,21 +2036,21 @@
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="B37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="E37" s="3">
         <v>3500000</v>
@@ -2069,15 +2069,15 @@
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>27</v>
@@ -2101,25 +2101,25 @@
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q38">
         <f t="shared" ref="Q38" si="2">IF(E38=H38, 1, IF(F38=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
@@ -2136,21 +2136,21 @@
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="E40" s="3">
         <v>0.5</v>
@@ -2169,15 +2169,15 @@
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>27</v>
@@ -2202,21 +2202,21 @@
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E42" s="3">
         <v>160</v>
@@ -2235,15 +2235,15 @@
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>27</v>
@@ -2268,21 +2268,21 @@
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E44" s="3">
         <v>2000000</v>
@@ -2301,21 +2301,21 @@
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E45" s="3">
         <v>1</v>
@@ -2332,15 +2332,15 @@
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="B46" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>27</v>
@@ -2365,15 +2365,15 @@
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>27</v>
@@ -2397,21 +2397,21 @@
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="B48" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E48" s="3">
         <f>130</f>
@@ -2431,21 +2431,21 @@
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E49" s="3">
         <v>2000000</v>
@@ -2464,19 +2464,19 @@
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="B50" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E50" s="3">
         <v>31.391999999999999</v>
@@ -2495,19 +2495,19 @@
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="B51" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E51" s="3">
         <v>31.545000000000002</v>
@@ -2526,12 +2526,12 @@
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>14</v>
@@ -2546,7 +2546,7 @@
         <v>168</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G52" s="3">
         <v>134.4</v>
@@ -2559,10 +2559,10 @@
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>24</v>
       </c>
@@ -2592,12 +2592,12 @@
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>23</v>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
